--- a/data_analysis/PythonPipeline/PatientData/Patient11/Patient11_SBS_Scores.xlsx
+++ b/data_analysis/PythonPipeline/PatientData/Patient11/Patient11_SBS_Scores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b14a0d7b62cf6ad0/Sid Stuff/PROJECTS/iMEDS Design Team/Data Analysis/PedAccel/data_analysis/PythonPipeline/Modules/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b14a0d7b62cf6ad0/Sid Stuff/PROJECTS/iMEDS Design Team/Data Analysis/PedAccel/data_analysis/PythonPipeline/PatientData/Patient11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4392B12F-CCFB-4D09-A52F-701F58A460D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4392B12F-CCFB-4D09-A52F-701F58A460D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{087DE80B-DD87-408C-9A91-A39B8C826D12}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{949B1F87-64F4-4252-AD7A-5070E776D74E}"/>
   </bookViews>
@@ -36,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
-  <si>
-    <t>*Note: There is a daytime and nighttime nurse</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>Time</t>
   </si>
   <si>
     <t>SBS</t>
-  </si>
-  <si>
-    <t>Patient 11 SBS Scores</t>
   </si>
   <si>
     <t>new nurse</t>
@@ -81,7 +75,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,14 +85,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,14 +119,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,9 +144,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -199,7 +184,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -305,7 +290,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -447,7 +432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -455,437 +440,425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFBD934-6467-4977-8CB5-5B28E431192F}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="21.1328125" style="5" customWidth="1"/>
+    <col min="1" max="2" width="21.1328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="4">
+        <v>45321.833333333336</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <f>TEXT(A2,"M/dd/yyyy hh:mm::ss AM/PM")</f>
+        <v>1/30/2024 08:00:00 PM</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4"/>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4">
+        <v>45322</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <f t="shared" ref="B3:B26" si="0">TEXT(A3,"M/dd/yyyy hh:mm::ss AM/PM")</f>
+        <v>1/31/2024 12:00:00 AM</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="4">
+        <v>45322.069444444445</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1/31/2024 01:40:00 AM</v>
+      </c>
+      <c r="C4">
         <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
-        <v>45321.833333333336</v>
-      </c>
-      <c r="B4" s="5" t="str">
-        <f>TEXT(A4,"M/dd/yyyy hh:mm::ss AM/PM")</f>
-        <v>1/30/2024 08:00:00 PM</v>
-      </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
-        <v>45322</v>
-      </c>
-      <c r="B5" s="5" t="str">
-        <f t="shared" ref="B5:B28" si="0">TEXT(A5,"M/dd/yyyy hh:mm::ss AM/PM")</f>
-        <v>1/31/2024 12:00:00 AM</v>
+      <c r="A5" s="4">
+        <v>45322.166666666664</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1/31/2024 04:00:00 AM</v>
       </c>
       <c r="C5">
         <v>-1</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
-        <v>45322.069444444445</v>
-      </c>
-      <c r="B6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1/31/2024 01:40:00 AM</v>
+      <c r="A6" s="4">
+        <v>45322.333333333336</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1/31/2024 08:00:00 AM</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
-        <v>45322.166666666664</v>
-      </c>
-      <c r="B7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1/31/2024 04:00:00 AM</v>
+      <c r="A7" s="4">
+        <v>45322.5</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1/31/2024 12:00:00 PM</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="5">
-        <v>45322.333333333336</v>
-      </c>
-      <c r="B8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1/31/2024 08:00:00 AM</v>
+      <c r="A8" s="4">
+        <v>45322.666666666664</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1/31/2024 04:00:00 PM</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="5">
-        <v>45322.5</v>
-      </c>
-      <c r="B9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1/31/2024 12:00:00 PM</v>
+      <c r="A9" s="4">
+        <v>45322.833333333336</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1/31/2024 08:00:00 PM</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="5">
-        <v>45322.666666666664</v>
-      </c>
-      <c r="B10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1/31/2024 04:00:00 PM</v>
+      <c r="A10" s="4">
+        <v>45323</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2/01/2024 12:00:00 AM</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="5">
-        <v>45322.833333333336</v>
-      </c>
-      <c r="B11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1/31/2024 08:00:00 PM</v>
+      <c r="A11" s="4">
+        <v>45323.166666666664</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2/01/2024 04:00:00 AM</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="5">
-        <v>45323</v>
-      </c>
-      <c r="B12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2/01/2024 12:00:00 AM</v>
+      <c r="A12" s="4">
+        <v>45323.333333333336</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2/01/2024 08:00:00 AM</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
-        <v>45323.166666666664</v>
-      </c>
-      <c r="B13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2/01/2024 04:00:00 AM</v>
+      <c r="A13" s="4">
+        <v>45323.5</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2/01/2024 12:00:00 PM</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
-        <v>45323.333333333336</v>
-      </c>
-      <c r="B14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2/01/2024 08:00:00 AM</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
+        <v>45323</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2/01/2024 12:00:00 AM</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-1</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
-        <v>45323.5</v>
-      </c>
-      <c r="B15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2/01/2024 12:00:00 PM</v>
+      <c r="A15" s="4">
+        <v>45323</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2/01/2024 12:00:00 AM</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="6">
-        <v>45323</v>
-      </c>
-      <c r="B16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2/01/2024 12:00:00 AM</v>
-      </c>
-      <c r="C16" s="2">
-        <v>-1</v>
+      <c r="A16" s="4">
+        <v>45324.208333333336</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2/02/2024 05:00:00 AM</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
-        <v>45323</v>
-      </c>
-      <c r="B17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2/01/2024 12:00:00 AM</v>
+      <c r="A17" s="4">
+        <v>45324.25</v>
+      </c>
+      <c r="B17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2/02/2024 06:00:00 AM</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="5">
-        <v>45324.208333333336</v>
-      </c>
-      <c r="B18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2/02/2024 05:00:00 AM</v>
+      <c r="A18" s="4">
+        <v>45324.333333333336</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2/02/2024 08:00:00 AM</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="5">
-        <v>45324.25</v>
-      </c>
-      <c r="B19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2/02/2024 06:00:00 AM</v>
+      <c r="A19" s="4">
+        <v>45324.5</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2/02/2024 12:00:00 PM</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
-        <v>45324.333333333336</v>
-      </c>
-      <c r="B20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2/02/2024 08:00:00 AM</v>
+      <c r="A20" s="4">
+        <v>45324.666666666664</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2/02/2024 04:00:00 PM</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
-        <v>45324.5</v>
-      </c>
-      <c r="B21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2/02/2024 12:00:00 PM</v>
+      <c r="A21" s="4">
+        <v>45324.833333333336</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2/02/2024 08:00:00 PM</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="5">
-        <v>45324.666666666664</v>
-      </c>
-      <c r="B22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2/02/2024 04:00:00 PM</v>
+      <c r="A22" s="4">
+        <v>45324.916666666664</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2/02/2024 10:00:00 PM</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="5">
-        <v>45324.833333333336</v>
-      </c>
-      <c r="B23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2/02/2024 08:00:00 PM</v>
+      <c r="A23" s="4">
+        <v>45325</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2/03/2024 12:00:00 AM</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="5">
-        <v>45324.916666666664</v>
-      </c>
-      <c r="B24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2/02/2024 10:00:00 PM</v>
+      <c r="A24" s="4">
+        <v>45325.166666666664</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2/03/2024 04:00:00 AM</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="5">
-        <v>45325</v>
-      </c>
-      <c r="B25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2/03/2024 12:00:00 AM</v>
+      <c r="A25" s="4">
+        <v>45325.25</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2/03/2024 06:00:00 AM</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="5">
-        <v>45325.166666666664</v>
-      </c>
-      <c r="B26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2/03/2024 04:00:00 AM</v>
+      <c r="A26" s="4">
+        <v>45325.666666666664</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2/03/2024 04:00:00 PM</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="5">
-        <v>45325.25</v>
-      </c>
-      <c r="B27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2/03/2024 06:00:00 AM</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="5">
-        <v>45325.666666666664</v>
-      </c>
-      <c r="B28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2/03/2024 04:00:00 PM</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -895,20 +868,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f4091d4a-f920-4aeb-a8fe-3077bf3bd3aa" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f4091d4a-f920-4aeb-a8fe-3077bf3bd3aa" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1165,6 +1138,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9F0892A-C3BF-46CA-B1CF-0AEE5836DDA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFC974C-8C23-4BFA-9169-97B9B80F3E6C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1177,14 +1158,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="f4091d4a-f920-4aeb-a8fe-3077bf3bd3aa"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9F0892A-C3BF-46CA-B1CF-0AEE5836DDA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
